--- a/Others_Solutions/Решения из книги Евич/Вариант 9/18/18.xlsx
+++ b/Others_Solutions/Решения из книги Евич/Вариант 9/18/18.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hem12\Documents\Документы Миша\Школьные предметы\ЕГЭ информатика\Solutions\PrepareForEGE_MishaPolykovsky\Others_Solutions\Решения из книги Евич\Вариант 9\18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95860E7-70EC-4C04-B760-066EF93A5FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,13 +32,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,18 +63,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -102,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -134,9 +164,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,6 +216,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -343,14 +409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>118</v>
       </c>
@@ -388,7 +456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -426,7 +494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>90</v>
       </c>
@@ -464,7 +532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>67</v>
       </c>
@@ -502,7 +570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>71</v>
       </c>
@@ -540,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46</v>
       </c>
@@ -578,7 +646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>37</v>
       </c>
@@ -616,7 +684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>91</v>
       </c>
@@ -654,7 +722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>105</v>
       </c>
@@ -692,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>91</v>
       </c>
@@ -730,7 +798,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>97</v>
       </c>
@@ -768,7 +836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>101</v>
       </c>
@@ -803,6 +871,1185 @@
         <v>45</v>
       </c>
       <c r="L12" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" ref="A14:A24" si="0">MAX(A15,B14)+A1</f>
+        <v>1899</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:B24" si="1">MAX(B15,C14)+B1</f>
+        <v>1781</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C24" si="2">MAX(C15,D14)+C1</f>
+        <v>1708</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D24" si="3">MAX(D15,E14)+D1</f>
+        <v>1612</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E24" si="4">MAX(E15,F14)+E1</f>
+        <v>1486</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F24" si="5">MAX(F15,G14)+F1</f>
+        <v>1338</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G24" si="6">MAX(G15,H14)+G1</f>
+        <v>1302</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H24" si="7">MAX(H15,I14)+H1</f>
+        <v>1129</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14:I24" si="8">MAX(I15,J14)+I1</f>
+        <v>1022</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J24" si="9">MAX(J15,K14)+J1</f>
+        <v>930</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" ref="K14:K23" si="10">MAX(K15,L14)+K1</f>
+        <v>730</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" ref="L14:L23" si="11">L15+L1</f>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>1757</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="1"/>
+        <v>1683</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="2"/>
+        <v>1583</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>1524</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>1432</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="5"/>
+        <v>1319</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="6"/>
+        <v>1253</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="7"/>
+        <v>1019</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="8"/>
+        <v>956</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="9"/>
+        <v>882</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="10"/>
+        <v>677</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="11"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>1717</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="1"/>
+        <v>1549</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="2"/>
+        <v>1465</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>1432</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>1391</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="5"/>
+        <v>1168</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="6"/>
+        <v>1143</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="7"/>
+        <v>928</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="8"/>
+        <v>909</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="10"/>
+        <v>644</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="11"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>1627</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>1505</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
+        <v>1426</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>1403</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>1272</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="5"/>
+        <v>1141</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="6"/>
+        <v>1029</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="7"/>
+        <v>870</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="8"/>
+        <v>765</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="9"/>
+        <v>742</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="10"/>
+        <v>593</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="11"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>1489</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>1313</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>1283</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
+        <v>1173</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="5"/>
+        <v>1057</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="6"/>
+        <v>1010</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>847</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="8"/>
+        <v>708</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="9"/>
+        <v>636</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="10"/>
+        <v>537</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="11"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>1416</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>1370</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>1295</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>1171</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="4"/>
+        <v>1108</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="5"/>
+        <v>992</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="6"/>
+        <v>922</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="7"/>
+        <v>744</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="8"/>
+        <v>622</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="9"/>
+        <v>554</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="10"/>
+        <v>508</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="11"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>1351</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>1314</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>1227</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="4"/>
+        <v>991</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
+        <v>961</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
+        <v>844</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="7"/>
+        <v>656</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="8"/>
+        <v>569</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="9"/>
+        <v>495</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="10"/>
+        <v>460</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="11"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>1252</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>1123</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>1108</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="3"/>
+        <v>1034</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="4"/>
+        <v>863</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="5"/>
+        <v>754</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
+        <v>732</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
+        <v>633</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="8"/>
+        <v>549</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="9"/>
+        <v>471</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="10"/>
+        <v>396</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="11"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>1161</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>966</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="3"/>
+        <v>938</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="4"/>
+        <v>845</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="5"/>
+        <v>681</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="6"/>
+        <v>553</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="7"/>
+        <v>509</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="8"/>
+        <v>455</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="9"/>
+        <v>365</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="10"/>
+        <v>317</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="11"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>989</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>772</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>757</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>730</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
+        <v>613</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="6"/>
+        <v>538</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="7"/>
+        <v>442</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="8"/>
+        <v>368</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="9"/>
+        <v>327</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="10"/>
+        <v>223</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="11"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>801</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="4"/>
+        <v>587</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="5"/>
+        <v>498</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="6"/>
+        <v>458</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="7"/>
+        <v>414</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="8"/>
+        <v>353</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="9"/>
+        <v>296</v>
+      </c>
+      <c r="K24">
+        <f>MAX(K25,L24)+K11</f>
+        <v>187</v>
+      </c>
+      <c r="L24">
+        <f>L25+L11</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>B25+A12</f>
+        <v>644</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" ref="B25:J25" si="12">C25+B12</f>
+        <v>543</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="12"/>
+        <v>513</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="12"/>
+        <v>478</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="12"/>
+        <v>417</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="12"/>
+        <v>388</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="12"/>
+        <v>310</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="12"/>
+        <v>246</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="12"/>
+        <v>208</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="K25">
+        <f>L25+K12</f>
+        <v>81</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" ref="A27:A37" si="13">MIN(B27,A28)+A1</f>
+        <v>957</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:B37" si="14">MIN(C27,B28)+B1</f>
+        <v>882</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:C37" si="15">MIN(D27,C28)+C1</f>
+        <v>837</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:D37" si="16">MIN(E27,D28)+D1</f>
+        <v>844</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:E37" si="17">MIN(F27,E28)+E1</f>
+        <v>756</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27:F37" si="18">MIN(G27,F28)+F1</f>
+        <v>702</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" ref="G27:G37" si="19">MIN(H27,G28)+G1</f>
+        <v>727</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27:H37" si="20">MIN(I27,H28)+H1</f>
+        <v>678</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ref="I27:I37" si="21">MIN(J27,I28)+I1</f>
+        <v>591</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" ref="J27:J37" si="22">MIN(K27,J28)+J1</f>
+        <v>525</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" ref="K27:K36" si="23">MIN(L27,K28)+K1</f>
+        <v>477</v>
+      </c>
+      <c r="L27">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="13"/>
+        <v>839</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="14"/>
+        <v>809</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="15"/>
+        <v>741</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="16"/>
+        <v>816</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="17"/>
+        <v>724</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="18"/>
+        <v>683</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="19"/>
+        <v>681</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="20"/>
+        <v>571</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="21"/>
+        <v>563</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="22"/>
+        <v>516</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="23"/>
+        <v>424</v>
+      </c>
+      <c r="L28">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="13"/>
+        <v>799</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="14"/>
+        <v>709</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="15"/>
+        <v>682</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="16"/>
+        <v>765</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="17"/>
+        <v>736</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="18"/>
+        <v>617</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="19"/>
+        <v>622</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="20"/>
+        <v>508</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="21"/>
+        <v>560</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="22"/>
+        <v>441</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="23"/>
+        <v>393</v>
+      </c>
+      <c r="L29">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="13"/>
+        <v>732</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="14"/>
+        <v>665</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="15"/>
+        <v>649</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="16"/>
+        <v>770</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="17"/>
+        <v>691</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="18"/>
+        <v>592</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="19"/>
+        <v>508</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="20"/>
+        <v>489</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="21"/>
+        <v>466</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="22"/>
+        <v>454</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="23"/>
+        <v>348</v>
+      </c>
+      <c r="L30">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="13"/>
+        <v>781</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="14"/>
+        <v>745</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="15"/>
+        <v>626</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="16"/>
+        <v>650</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="17"/>
+        <v>632</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="18"/>
+        <v>585</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="19"/>
+        <v>595</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="20"/>
+        <v>532</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="21"/>
+        <v>443</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="22"/>
+        <v>381</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="23"/>
+        <v>299</v>
+      </c>
+      <c r="L31">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="13"/>
+        <v>710</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="14"/>
+        <v>664</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="15"/>
+        <v>608</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="16"/>
+        <v>540</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="17"/>
+        <v>567</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="18"/>
+        <v>538</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="19"/>
+        <v>507</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="20"/>
+        <v>429</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="21"/>
+        <v>371</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="22"/>
+        <v>344</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="23"/>
+        <v>300</v>
+      </c>
+      <c r="L32">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="13"/>
+        <v>720</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="14"/>
+        <v>683</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="15"/>
+        <v>596</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="16"/>
+        <v>477</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="17"/>
+        <v>451</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="18"/>
+        <v>520</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="19"/>
+        <v>453</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="20"/>
+        <v>341</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="21"/>
+        <v>318</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="22"/>
+        <v>298</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="23"/>
+        <v>274</v>
+      </c>
+      <c r="L33">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="13"/>
+        <v>697</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="14"/>
+        <v>606</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="15"/>
+        <v>591</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="16"/>
+        <v>517</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="17"/>
+        <v>421</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="18"/>
+        <v>403</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="19"/>
+        <v>412</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="20"/>
+        <v>382</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="21"/>
+        <v>381</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="22"/>
+        <v>314</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="23"/>
+        <v>271</v>
+      </c>
+      <c r="L34">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="13"/>
+        <v>781</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="14"/>
+        <v>676</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="15"/>
+        <v>586</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="16"/>
+        <v>589</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="17"/>
+        <v>496</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="18"/>
+        <v>381</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="19"/>
+        <v>313</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="20"/>
+        <v>298</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="21"/>
+        <v>303</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="22"/>
+        <v>239</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="23"/>
+        <v>251</v>
+      </c>
+      <c r="L35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="13"/>
+        <v>723</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="14"/>
+        <v>632</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="15"/>
+        <v>558</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="16"/>
+        <v>543</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="17"/>
+        <v>516</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="18"/>
+        <v>399</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="19"/>
+        <v>324</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="20"/>
+        <v>244</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="21"/>
+        <v>216</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="22"/>
+        <v>201</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="23"/>
+        <v>170</v>
+      </c>
+      <c r="L36">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="13"/>
+        <v>741</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="14"/>
+        <v>644</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="15"/>
+        <v>563</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="16"/>
+        <v>541</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="17"/>
+        <v>480</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="18"/>
+        <v>391</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="19"/>
+        <v>351</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="20"/>
+        <v>307</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="21"/>
+        <v>265</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="22"/>
+        <v>231</v>
+      </c>
+      <c r="K37">
+        <f>MIN(L37,K38)+K11</f>
+        <v>168</v>
+      </c>
+      <c r="L37">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>644</v>
+      </c>
+      <c r="B38">
+        <v>543</v>
+      </c>
+      <c r="C38">
+        <v>513</v>
+      </c>
+      <c r="D38">
+        <v>478</v>
+      </c>
+      <c r="E38">
+        <v>417</v>
+      </c>
+      <c r="F38">
+        <v>388</v>
+      </c>
+      <c r="G38">
+        <v>310</v>
+      </c>
+      <c r="H38">
+        <v>246</v>
+      </c>
+      <c r="I38">
+        <v>208</v>
+      </c>
+      <c r="J38">
+        <v>122</v>
+      </c>
+      <c r="K38">
+        <v>81</v>
+      </c>
+      <c r="L38">
         <v>36</v>
       </c>
     </row>
@@ -812,24 +2059,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
